--- a/data/trans_dic/P2A_ner_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_ner_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,57 +729,57 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 12,04</t>
+          <t>2,45; 12,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 12,46</t>
+          <t>2,46; 11,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 7,87</t>
+          <t>1,24; 8,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 9,92</t>
+          <t>2,24; 9,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 10,17</t>
+          <t>1,77; 10,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,95; 22,41</t>
+          <t>9,9; 23,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,64; 11,01</t>
+          <t>3,71; 11,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,56</t>
+          <t>0,8; 4,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,62; 8,72</t>
+          <t>2,65; 9,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,92; 15,92</t>
+          <t>7,04; 15,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 7,9</t>
+          <t>3,19; 7,95</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,0</t>
+          <t>1,35; 4,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,99</t>
+          <t>2,11; 5,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,31</t>
+          <t>2,35; 5,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,52; 10,58</t>
+          <t>5,39; 10,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,03</t>
+          <t>3,26; 6,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,5; 7,06</t>
+          <t>3,34; 7,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,53; 14,09</t>
+          <t>8,69; 14,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,51; 8,31</t>
+          <t>4,62; 8,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,7; 4,89</t>
+          <t>2,72; 4,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,14; 5,53</t>
+          <t>3,12; 5,57</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,0; 9,11</t>
+          <t>6,1; 9,21</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,47; 8,52</t>
+          <t>5,49; 8,71</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,2</t>
+          <t>1,99; 4,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,25</t>
+          <t>1,43; 3,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,45</t>
+          <t>2,96; 5,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,77; 7,08</t>
+          <t>3,73; 6,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,29</t>
+          <t>3,21; 5,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,99; 6,93</t>
+          <t>3,99; 6,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,53; 11,18</t>
+          <t>7,51; 11,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,27; 9,05</t>
+          <t>6,36; 9,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 4,8</t>
+          <t>2,88; 4,69</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 4,71</t>
+          <t>2,96; 4,64</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 7,88</t>
+          <t>5,55; 7,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,4; 7,46</t>
+          <t>5,39; 7,55</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,54</t>
+          <t>2,41; 5,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,73</t>
+          <t>1,31; 3,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,93; 5,83</t>
+          <t>2,96; 6,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,32; 8,43</t>
+          <t>4,23; 8,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,52</t>
+          <t>3,31; 6,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,43</t>
+          <t>3,27; 6,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,46; 12,93</t>
+          <t>8,4; 12,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,71; 46,6</t>
+          <t>6,81; 46,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 5,25</t>
+          <t>3,26; 5,42</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 4,57</t>
+          <t>2,59; 4,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,17; 9,02</t>
+          <t>6,09; 8,85</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,28; 32,73</t>
+          <t>6,25; 32,19</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,58</t>
+          <t>1,53; 3,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,95; 5,77</t>
+          <t>2,86; 5,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,0; 7,16</t>
+          <t>4,09; 7,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,19; 8,76</t>
+          <t>5,07; 8,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,2; 5,66</t>
+          <t>3,11; 5,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,23</t>
+          <t>3,62; 6,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,65; 15,2</t>
+          <t>10,66; 15,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,93; 8,71</t>
+          <t>5,99; 8,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,62; 4,24</t>
+          <t>2,6; 4,33</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,62; 5,44</t>
+          <t>3,58; 5,55</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,9; 10,62</t>
+          <t>8,06; 10,72</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,98; 8,26</t>
+          <t>5,98; 8,16</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,25; 3,39</t>
+          <t>2,22; 3,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,48; 3,73</t>
+          <t>2,48; 3,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,8; 5,24</t>
+          <t>3,85; 5,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,27; 7,2</t>
+          <t>5,3; 7,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,87; 5,37</t>
+          <t>3,8; 5,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,22; 5,68</t>
+          <t>4,31; 5,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,96; 12,2</t>
+          <t>9,96; 12,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,97; 19,12</t>
+          <t>6,87; 19,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,22; 4,14</t>
+          <t>3,2; 4,13</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,54; 4,54</t>
+          <t>3,53; 4,53</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,16; 8,53</t>
+          <t>7,22; 8,59</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,46; 14,12</t>
+          <t>6,48; 13,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_ner_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_ner_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>3,87%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>1,23; 3,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 12,5</t>
+          <t>2,55; 5,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,46; 11,81</t>
+          <t>2,72; 5,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 8,04</t>
+          <t>2,69; 5,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 9,39</t>
+          <t>3,38; 6,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 10,39</t>
+          <t>3,49; 6,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,9; 23,83</t>
+          <t>9,42; 14,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,71; 11,03</t>
+          <t>2,55; 5,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,6</t>
+          <t>2,54; 4,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,65; 9,09</t>
+          <t>3,37; 5,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,04; 15,54</t>
+          <t>6,5; 9,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 7,95</t>
+          <t>3,02; 5,07</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>3,54%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,07</t>
+          <t>2,08; 4,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,17</t>
+          <t>1,43; 3,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,28</t>
+          <t>2,96; 5,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,39; 10,32</t>
+          <t>1,09; 3,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 6,88</t>
+          <t>3,33; 6,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 7,04</t>
+          <t>3,99; 6,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,69; 14,22</t>
+          <t>7,51; 11,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 8,42</t>
+          <t>4,04; 6,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 4,9</t>
+          <t>3,01; 4,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,12; 5,57</t>
+          <t>2,96; 4,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,1; 9,21</t>
+          <t>5,55; 7,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,49; 8,71</t>
+          <t>2,4; 4,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>25,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>16,13%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,22</t>
+          <t>2,41; 5,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,38</t>
+          <t>1,31; 3,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 5,48</t>
+          <t>2,96; 6,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,73; 6,91</t>
+          <t>2,23; 4,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 5,99</t>
+          <t>3,31; 6,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,99; 6,85</t>
+          <t>3,27; 6,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 11,15</t>
+          <t>8,4; 12,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,36; 9,13</t>
+          <t>4,35; 61,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 4,69</t>
+          <t>3,26; 5,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 4,64</t>
+          <t>2,59; 4,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,55; 7,9</t>
+          <t>6,09; 8,85</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,39; 7,55</t>
+          <t>3,84; 44,55</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>4,14%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,14</t>
+          <t>1,53; 3,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,67</t>
+          <t>2,86; 5,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,96; 6,2</t>
+          <t>4,09; 7,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,15</t>
+          <t>2,66; 5,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,31; 6,5</t>
+          <t>3,11; 5,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,27; 6,52</t>
+          <t>3,62; 6,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,4; 12,91</t>
+          <t>10,66; 15,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 46,42</t>
+          <t>3,32; 5,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,26; 5,42</t>
+          <t>2,6; 4,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,53</t>
+          <t>3,58; 5,55</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,09; 8,85</t>
+          <t>8,06; 10,72</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 32,19</t>
+          <t>3,26; 5,06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>6,65%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,51</t>
+          <t>2,26; 3,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,52</t>
+          <t>2,48; 3,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,09; 7,2</t>
+          <t>3,85; 5,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,07; 8,61</t>
+          <t>2,55; 4,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,11; 5,71</t>
+          <t>3,85; 5,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,29</t>
+          <t>4,31; 5,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,66; 15,07</t>
+          <t>9,96; 12,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,99; 8,8</t>
+          <t>4,36; 25,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,6; 4,33</t>
+          <t>3,24; 4,18</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,58; 5,55</t>
+          <t>3,53; 4,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,06; 10,72</t>
+          <t>7,22; 8,59</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,98; 8,16</t>
+          <t>3,76; 15,91</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,74%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,07%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4,51%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,14%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>4,55%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>4,93%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>11,03%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>9,83%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>3,66%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>4,02%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>7,84%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>8,1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,22; 3,28</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,48; 3,72</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3,85; 5,29</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>5,3; 7,13</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>3,8; 5,33</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>4,31; 5,77</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>9,96; 12,11</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>6,87; 19,21</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>3,2; 4,13</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>3,53; 4,53</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>7,22; 8,59</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>6,48; 13,16</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P2A_ner_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_ner_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,51</t>
+          <t>1,14; 3,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 5,36</t>
+          <t>2,53; 5,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,64</t>
+          <t>2,54; 5,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 5,7</t>
+          <t>2,72; 5,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,38; 6,62</t>
+          <t>3,39; 6,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,49; 6,66</t>
+          <t>3,55; 6,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,42; 14,51</t>
+          <t>9,42; 14,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 5,18</t>
+          <t>2,63; 5,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 4,5</t>
+          <t>2,61; 4,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,67</t>
+          <t>3,31; 5,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 9,5</t>
+          <t>6,55; 9,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 5,07</t>
+          <t>2,95; 4,99</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,34</t>
+          <t>2,0; 4,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,38</t>
+          <t>1,44; 3,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 5,48</t>
+          <t>2,97; 5,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,52</t>
+          <t>1,16; 3,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 6,09</t>
+          <t>3,42; 6,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,99; 6,85</t>
+          <t>3,96; 6,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,51; 11,15</t>
+          <t>7,43; 11,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,04; 6,34</t>
+          <t>4,02; 6,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 4,81</t>
+          <t>2,99; 4,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 4,64</t>
+          <t>2,91; 4,7</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,55; 7,9</t>
+          <t>5,64; 7,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,4; 4,44</t>
+          <t>2,51; 4,47</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,14</t>
+          <t>2,4; 5,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,67</t>
+          <t>1,29; 3,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 6,2</t>
+          <t>3,09; 6,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,94</t>
+          <t>2,08; 4,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 6,5</t>
+          <t>3,34; 6,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 6,52</t>
+          <t>3,32; 6,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,4; 12,91</t>
+          <t>8,2; 12,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 61,07</t>
+          <t>4,3; 58,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 5,42</t>
+          <t>3,26; 5,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,53</t>
+          <t>2,61; 4,57</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,09; 8,85</t>
+          <t>6,1; 8,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 44,55</t>
+          <t>3,82; 43,65</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,51</t>
+          <t>1,63; 3,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,52</t>
+          <t>3,0; 5,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,09; 7,2</t>
+          <t>4,09; 7,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 5,92</t>
+          <t>2,64; 5,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,11; 5,71</t>
+          <t>3,16; 5,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,29</t>
+          <t>3,57; 6,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,66; 15,07</t>
+          <t>10,67; 15,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 5,37</t>
+          <t>3,28; 5,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 4,33</t>
+          <t>2,61; 4,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 5,55</t>
+          <t>3,66; 5,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,06; 10,72</t>
+          <t>7,88; 10,72</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,26; 5,06</t>
+          <t>3,32; 5,13</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,35</t>
+          <t>2,22; 3,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 3,72</t>
+          <t>2,48; 3,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,85; 5,29</t>
+          <t>3,83; 5,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,55; 4,0</t>
+          <t>2,57; 4,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,85; 5,38</t>
+          <t>3,83; 5,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,31; 5,77</t>
+          <t>4,28; 5,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,96; 12,11</t>
+          <t>10,01; 12,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,36; 25,93</t>
+          <t>4,34; 26,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,24; 4,18</t>
+          <t>3,25; 4,19</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,53; 4,53</t>
+          <t>3,54; 4,51</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,22; 8,59</t>
+          <t>7,13; 8,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,76; 15,91</t>
+          <t>3,74; 16,58</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con problemas de nervios, depresión o trastorno mental</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14283</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>26895</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>26633</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>25522</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>33305</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>34012</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>80305</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>27101</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>47588</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>60908</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>106938</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>52624</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7933; 23912</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17809; 39062</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>17172; 37456</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17274; 37037</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>23322; 45692</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>24742; 47412</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>63396; 97802</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>19111; 36249</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>36143; 63548</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>46354; 78946</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>88332; 127041</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>40084; 67843</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>29595</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>22797</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>42135</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>27175</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>44920</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>54338</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>96554</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>49096</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>74515</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>77135</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>138689</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>76271</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>19245; 42150</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>14608; 33758</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>30402; 56728</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>13808; 42872</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>33120; 60297</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>40882; 70844</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>77508; 116405</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>38551; 60586</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>57734; 93412</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>59663; 96430</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>116537; 164047</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>54077; 96120</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24228</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17025</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>33015</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>23916</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>32658</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>36357</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>81510</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>240338</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>56886</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>53383</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>114525</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>264254</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16262; 35000</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9790; 28686</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>23438; 46858</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14632; 34312</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>22863; 44470</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>25803; 49405</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>64393; 100991</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>40098; 543040</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>44401; 73487</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>40094; 70092</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>94145; 136288</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>62649; 715006</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>22812</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>38500</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>51391</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>36508</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>44072</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>50855</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>132430</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>47183</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>66884</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>89356</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>183821</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>83691</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>15369; 33073</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>28413; 53711</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>38377; 66745</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>24503; 53251</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>32834; 59166</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>37521; 67160</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>111346; 157595</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>35913; 58340</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>51603; 84211</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>73206; 112189</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>156103; 212407</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>67200; 103753</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>90919</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>105218</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>153173</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>113122</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>154955</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>175563</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>390800</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>363717</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>245873</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>280781</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>543973</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>476840</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>72645; 111320</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>84953; 125556</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>130162; 179186</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>88845; 141740</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>129417; 181201</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>152205; 207429</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>354888; 430916</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>161276; 988032</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>216538; 278899</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>247516; 314833</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>495007; 591483</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>268313; 1189282</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>